--- a/WeeklyReport/attn_whole.xlsx
+++ b/WeeklyReport/attn_whole.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ichika\Documents\MEGA\AttnGANs\test_segmentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ichika\Documents\MEGA\進捗報告\2020_06_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75F757E-D7F2-421B-9563-23AA4EA38109}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3BB287-EC22-4CBE-B3EE-BB4A31E76652}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="972" yWindow="-96" windowWidth="22164" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,12 +26,6 @@
   </si>
   <si>
     <t>avg.</t>
-  </si>
-  <si>
-    <t>従来手法(LSTM)</t>
-  </si>
-  <si>
-    <t>従来手法(GRU)</t>
   </si>
   <si>
     <t>Word2Vec(LSTM)</t>
@@ -71,6 +65,12 @@
   </si>
   <si>
     <t>Best_RMSE</t>
+  </si>
+  <si>
+    <t>previous(LSTM)</t>
+  </si>
+  <si>
+    <t>previous(GRU)</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:AB76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="AB63" sqref="B54:AB63"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3">
         <v>0.48699999999999999</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3">
         <v>0.59060000000000001</v>
@@ -1320,7 +1320,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>0.53700000000000003</v>
@@ -1404,7 +1404,7 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3">
         <v>0.51039999999999996</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>0.46210000000000001</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3">
         <v>0.3674</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>0.42009999999999997</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3">
         <v>0.4884</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3">
         <v>0.41980000000000001</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3">
         <v>0.58399999999999996</v>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="14" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.85">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A15" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3">
         <v>0.4929</v>
@@ -2160,7 +2160,7 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A16" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3">
         <v>0.60909999999999997</v>
@@ -2244,7 +2244,7 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A17" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" s="3">
         <v>0.60870000000000002</v>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A18" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B18" s="3">
         <v>0.53520000000000001</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A19" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B19" s="3">
         <v>0.4894</v>
@@ -2496,7 +2496,7 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A20" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B20" s="3">
         <v>0.4007</v>
@@ -2580,7 +2580,7 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A21" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B21" s="3">
         <v>0.47</v>
@@ -2664,7 +2664,7 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A22" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B22" s="3">
         <v>0.50490000000000002</v>
@@ -2748,7 +2748,7 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A23" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B23" s="3">
         <v>0.44729999999999998</v>
@@ -2832,7 +2832,7 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A24" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B24" s="3">
         <v>0.60840000000000005</v>
@@ -2916,7 +2916,7 @@
     </row>
     <row r="27" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.85">
       <c r="A27" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
@@ -3000,7 +3000,7 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A28" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B28" s="4">
         <v>16.242000000000001</v>
@@ -3084,7 +3084,7 @@
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A29" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B29" s="4">
         <v>18.45</v>
@@ -3168,7 +3168,7 @@
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A30" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B30" s="4">
         <v>18.594999999999999</v>
@@ -3252,7 +3252,7 @@
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A31" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B31" s="4">
         <v>16.811</v>
@@ -3336,7 +3336,7 @@
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A32" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B32" s="4">
         <v>14.385</v>
@@ -3420,7 +3420,7 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A33" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B33" s="4">
         <v>13.004</v>
@@ -3504,7 +3504,7 @@
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A34" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B34" s="4">
         <v>13.920999999999999</v>
@@ -3588,7 +3588,7 @@
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A35" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B35" s="4">
         <v>16.523</v>
@@ -3672,7 +3672,7 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A36" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B36" s="4">
         <v>15.269</v>
@@ -3756,7 +3756,7 @@
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A37" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B37" s="4">
         <v>19.533999999999999</v>
@@ -3840,7 +3840,7 @@
     </row>
     <row r="40" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.85">
       <c r="A40" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B40" s="2">
         <v>1</v>
@@ -3924,7 +3924,7 @@
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A41" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B41" s="4">
         <v>16.446000000000002</v>
@@ -4008,7 +4008,7 @@
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A42" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B42" s="4">
         <v>19.806000000000001</v>
@@ -4092,7 +4092,7 @@
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A43" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B43" s="4">
         <v>19.821000000000002</v>
@@ -4176,7 +4176,7 @@
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A44" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B44" s="4">
         <v>17.472000000000001</v>
@@ -4260,7 +4260,7 @@
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A45" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B45" s="4">
         <v>15.009</v>
@@ -4344,7 +4344,7 @@
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A46" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B46" s="4">
         <v>13.379</v>
@@ -4428,7 +4428,7 @@
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A47" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B47" s="4">
         <v>14.734</v>
@@ -4512,7 +4512,7 @@
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A48" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B48" s="4">
         <v>16.920999999999999</v>
@@ -4596,7 +4596,7 @@
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A49" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B49" s="4">
         <v>15.696999999999999</v>
@@ -4680,7 +4680,7 @@
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A50" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B50" s="4">
         <v>20.475000000000001</v>
@@ -4764,7 +4764,7 @@
     </row>
     <row r="53" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.85">
       <c r="A53" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B53" s="2">
         <v>1</v>
@@ -4848,7 +4848,7 @@
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A54" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B54" s="4">
         <v>9.1170000000000009</v>
@@ -4932,7 +4932,7 @@
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A55" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B55" s="4">
         <v>8.25</v>
@@ -5016,7 +5016,7 @@
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A56" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B56" s="4">
         <v>8.8610000000000007</v>
@@ -5100,7 +5100,7 @@
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A57" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B57" s="4">
         <v>9.343</v>
@@ -5184,7 +5184,7 @@
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A58" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B58" s="4">
         <v>9.2870000000000008</v>
@@ -5268,7 +5268,7 @@
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A59" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B59" s="4">
         <v>9.8859999999999992</v>
@@ -5352,7 +5352,7 @@
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A60" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B60" s="4">
         <v>9.1289999999999996</v>
@@ -5436,7 +5436,7 @@
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A61" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B61" s="4">
         <v>9.0960000000000001</v>
@@ -5520,7 +5520,7 @@
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A62" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B62" s="4">
         <v>9.7509999999999994</v>
@@ -5604,7 +5604,7 @@
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A63" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B63" s="4">
         <v>8.4629999999999992</v>
@@ -5688,7 +5688,7 @@
     </row>
     <row r="66" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.85">
       <c r="A66" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B66" s="2">
         <v>1</v>
@@ -5772,7 +5772,7 @@
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A67" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B67" s="4">
         <v>8.86</v>
@@ -5856,7 +5856,7 @@
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A68" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B68" s="4">
         <v>8.0869999999999997</v>
@@ -5940,7 +5940,7 @@
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A69" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B69" s="4">
         <v>8.0280000000000005</v>
@@ -6024,7 +6024,7 @@
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A70" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B70" s="4">
         <v>9.0370000000000008</v>
@@ -6108,7 +6108,7 @@
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A71" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B71" s="4">
         <v>9.0289999999999999</v>
@@ -6192,7 +6192,7 @@
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A72" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B72" s="4">
         <v>9.6370000000000005</v>
@@ -6276,7 +6276,7 @@
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A73" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B73" s="4">
         <v>8.7249999999999996</v>
@@ -6360,7 +6360,7 @@
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A74" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B74" s="4">
         <v>8.8670000000000009</v>
@@ -6444,7 +6444,7 @@
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A75" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B75" s="4">
         <v>9.6769999999999996</v>
@@ -6528,7 +6528,7 @@
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.85">
       <c r="A76" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B76" s="4">
         <v>8.2579999999999991</v>
@@ -6769,5 +6769,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="274" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>